--- a/references/data_analysis.xlsx
+++ b/references/data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimberlyashman/Workspace/fetal-health/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D919CFA-3C5A-9345-A995-A0639259AA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B180A-5853-DF46-8B55-D23E1AB79F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="2180" windowWidth="28040" windowHeight="15820" xr2:uid="{A85DB8AA-5870-DE47-8006-E83C016ADC26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Variable</t>
   </si>
@@ -141,10 +141,13 @@
     <t xml:space="preserve">percentage of subsequent FHR signals differing &lt; 1 bpm </t>
   </si>
   <si>
-    <t>mean di erence between max and min FHR in a 1 min sliding window, in segments free of accelerations or deceleration</t>
-  </si>
-  <si>
     <t xml:space="preserve">mean dfference between adjacent FHR signals at 4 Hz on the fetal monitor, after removal of adjacent signals that differ &gt; 15 bmp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+  </si>
+  <si>
+    <t>mean difference between max and min FHR in a 1 min sliding window, in segments free of accelerations or deceleration</t>
   </si>
 </sst>
 </file>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291797F3-F31D-9C4D-8EC5-3FF4D52A41F4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -576,9 +579,6 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
@@ -590,6 +590,9 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
@@ -601,6 +604,9 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -609,6 +615,9 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
@@ -642,6 +651,9 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
@@ -653,6 +665,9 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
@@ -664,8 +679,11 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.25">
@@ -684,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/references/data_analysis.xlsx
+++ b/references/data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimberlyashman/Workspace/fetal-health/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B180A-5853-DF46-8B55-D23E1AB79F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF412C-B27B-3442-9225-78180F4AE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2180" windowWidth="28040" windowHeight="15820" xr2:uid="{A85DB8AA-5870-DE47-8006-E83C016ADC26}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{A85DB8AA-5870-DE47-8006-E83C016ADC26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291797F3-F31D-9C4D-8EC5-3FF4D52A41F4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
